--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.6489035</v>
+        <v>9.593917000000001</v>
       </c>
       <c r="H2">
-        <v>23.297807</v>
+        <v>19.187834</v>
       </c>
       <c r="I2">
-        <v>0.0729080148922264</v>
+        <v>0.05263830748531164</v>
       </c>
       <c r="J2">
-        <v>0.05097284954994438</v>
+        <v>0.03703112602689361</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.7692475</v>
+        <v>3.879503</v>
       </c>
       <c r="N2">
-        <v>31.538495</v>
+        <v>7.759005999999999</v>
       </c>
       <c r="O2">
-        <v>0.5883619438861605</v>
+        <v>0.3471211107855025</v>
       </c>
       <c r="P2">
-        <v>0.520669691097388</v>
+        <v>0.3235173678323748</v>
       </c>
       <c r="Q2">
-        <v>183.6944423951162</v>
+        <v>37.219629783251</v>
       </c>
       <c r="R2">
-        <v>734.7777695804649</v>
+        <v>148.878519133004</v>
       </c>
       <c r="S2">
-        <v>0.04289630136687146</v>
+        <v>0.0182718677641702</v>
       </c>
       <c r="T2">
-        <v>0.02654001782952317</v>
+        <v>0.01198021242008957</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.6489035</v>
+        <v>9.593917000000001</v>
       </c>
       <c r="H3">
-        <v>23.297807</v>
+        <v>19.187834</v>
       </c>
       <c r="I3">
-        <v>0.0729080148922264</v>
+        <v>0.05263830748531164</v>
       </c>
       <c r="J3">
-        <v>0.05097284954994438</v>
+        <v>0.03703112602689361</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.7435066666666666</v>
+        <v>0.7435066666666668</v>
       </c>
       <c r="N3">
         <v>2.23052</v>
       </c>
       <c r="O3">
-        <v>0.02774076744577188</v>
+        <v>0.06652575343020993</v>
       </c>
       <c r="P3">
-        <v>0.03682370257003531</v>
+        <v>0.09300314489993548</v>
       </c>
       <c r="Q3">
-        <v>8.661037411606666</v>
+        <v>7.133141248946669</v>
       </c>
       <c r="R3">
-        <v>51.96622446964</v>
+        <v>42.79884749368001</v>
       </c>
       <c r="S3">
-        <v>0.002022524286058125</v>
+        <v>0.003501803064751416</v>
       </c>
       <c r="T3">
-        <v>0.00187700905097431</v>
+        <v>0.003444011179686959</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.6489035</v>
+        <v>9.593917000000001</v>
       </c>
       <c r="H4">
-        <v>23.297807</v>
+        <v>19.187834</v>
       </c>
       <c r="I4">
-        <v>0.0729080148922264</v>
+        <v>0.05263830748531164</v>
       </c>
       <c r="J4">
-        <v>0.05097284954994438</v>
+        <v>0.03703112602689361</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3820743333333333</v>
+        <v>0.2907036666666666</v>
       </c>
       <c r="N4">
-        <v>1.146223</v>
+        <v>0.872111</v>
       </c>
       <c r="O4">
-        <v>0.01425546764162392</v>
+        <v>0.02601090389226449</v>
       </c>
       <c r="P4">
-        <v>0.01892302011680397</v>
+        <v>0.03636329900732906</v>
       </c>
       <c r="Q4">
-        <v>4.450747038826833</v>
+        <v>2.788986849595667</v>
       </c>
       <c r="R4">
-        <v>26.704482232961</v>
+        <v>16.733921097574</v>
       </c>
       <c r="S4">
-        <v>0.001039337847111168</v>
+        <v>0.001369169957051908</v>
       </c>
       <c r="T4">
-        <v>0.0009645602574444195</v>
+        <v>0.001346573908294018</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.6489035</v>
+        <v>9.593917000000001</v>
       </c>
       <c r="H5">
-        <v>23.297807</v>
+        <v>19.187834</v>
       </c>
       <c r="I5">
-        <v>0.0729080148922264</v>
+        <v>0.05263830748531164</v>
       </c>
       <c r="J5">
-        <v>0.05097284954994438</v>
+        <v>0.03703112602689361</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.063661</v>
+        <v>5.665891500000001</v>
       </c>
       <c r="N5">
-        <v>8.127321999999999</v>
+        <v>11.331783</v>
       </c>
       <c r="O5">
-        <v>0.1516181089335036</v>
+        <v>0.5069594097672143</v>
       </c>
       <c r="P5">
-        <v>0.1341741333944123</v>
+        <v>0.4724868893009816</v>
       </c>
       <c r="Q5">
-        <v>47.3371948457135</v>
+        <v>54.35809278200551</v>
       </c>
       <c r="R5">
-        <v>189.348779382854</v>
+        <v>217.4323711280221</v>
       </c>
       <c r="S5">
-        <v>0.01105417534405508</v>
+        <v>0.02668548529389873</v>
       </c>
       <c r="T5">
-        <v>0.006839237915007546</v>
+        <v>0.01749672154375958</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.6489035</v>
+        <v>9.593917000000001</v>
       </c>
       <c r="H6">
-        <v>23.297807</v>
+        <v>19.187834</v>
       </c>
       <c r="I6">
-        <v>0.0729080148922264</v>
+        <v>0.05263830748531164</v>
       </c>
       <c r="J6">
-        <v>0.05097284954994438</v>
+        <v>0.03703112602689361</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>5.004420333333333</v>
+        <v>0.183503</v>
       </c>
       <c r="N6">
-        <v>15.013261</v>
+        <v>0.5505089999999999</v>
       </c>
       <c r="O6">
-        <v>0.1867185149667685</v>
+        <v>0.01641905295406965</v>
       </c>
       <c r="P6">
-        <v>0.2478542481889026</v>
+        <v>0.02295387097883837</v>
       </c>
       <c r="Q6">
-        <v>58.29600953643783</v>
+        <v>1.760512551251</v>
       </c>
       <c r="R6">
-        <v>349.776057218627</v>
+        <v>10.563075307506</v>
       </c>
       <c r="S6">
-        <v>0.01361327626985156</v>
+        <v>0.0008642711580139325</v>
       </c>
       <c r="T6">
-        <v>0.0126338373032475</v>
+        <v>0.0008500076890224196</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.6489035</v>
+        <v>9.593917000000001</v>
       </c>
       <c r="H7">
-        <v>23.297807</v>
+        <v>19.187834</v>
       </c>
       <c r="I7">
-        <v>0.0729080148922264</v>
+        <v>0.05263830748531164</v>
       </c>
       <c r="J7">
-        <v>0.05097284954994438</v>
+        <v>0.03703112602689361</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8390403333333335</v>
+        <v>0.4131153333333333</v>
       </c>
       <c r="N7">
-        <v>2.517121</v>
+        <v>1.239346</v>
       </c>
       <c r="O7">
-        <v>0.03130519712617182</v>
+        <v>0.03696376917073908</v>
       </c>
       <c r="P7">
-        <v>0.04155520463245785</v>
+        <v>0.0516754279805406</v>
       </c>
       <c r="Q7">
-        <v>9.773899875607835</v>
+        <v>3.963394219427334</v>
       </c>
       <c r="R7">
-        <v>58.643399253647</v>
+        <v>23.780365316564</v>
       </c>
       <c r="S7">
-        <v>0.002282399778279018</v>
+        <v>0.001945710247425447</v>
       </c>
       <c r="T7">
-        <v>0.002118187193747425</v>
+        <v>0.001913599286041063</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>40.26188533333334</v>
+        <v>40.26188533333333</v>
       </c>
       <c r="H8">
         <v>120.785656</v>
       </c>
       <c r="I8">
-        <v>0.2519905959794224</v>
+        <v>0.2209022133623169</v>
       </c>
       <c r="J8">
-        <v>0.2642647469385997</v>
+        <v>0.2331075435391518</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.7692475</v>
+        <v>3.879503</v>
       </c>
       <c r="N8">
-        <v>31.538495</v>
+        <v>7.759005999999999</v>
       </c>
       <c r="O8">
-        <v>0.5883619438861605</v>
+        <v>0.3471211107855025</v>
       </c>
       <c r="P8">
-        <v>0.520669691097388</v>
+        <v>0.3235173678323748</v>
       </c>
       <c r="Q8">
-        <v>634.8996346379533</v>
+        <v>156.1961049363227</v>
       </c>
       <c r="R8">
-        <v>3809.39780782772</v>
+        <v>937.176629617936</v>
       </c>
       <c r="S8">
-        <v>0.148261676891485</v>
+        <v>0.07667982167730349</v>
       </c>
       <c r="T8">
-        <v>0.1375946441564501</v>
+        <v>0.0754143389076571</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>40.26188533333334</v>
+        <v>40.26188533333333</v>
       </c>
       <c r="H9">
         <v>120.785656</v>
       </c>
       <c r="I9">
-        <v>0.2519905959794224</v>
+        <v>0.2209022133623169</v>
       </c>
       <c r="J9">
-        <v>0.2642647469385997</v>
+        <v>0.2331075435391518</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7435066666666666</v>
+        <v>0.7435066666666668</v>
       </c>
       <c r="N9">
         <v>2.23052</v>
       </c>
       <c r="O9">
-        <v>0.02774076744577188</v>
+        <v>0.06652575343020993</v>
       </c>
       <c r="P9">
-        <v>0.03682370257003531</v>
+        <v>0.09300314489993548</v>
       </c>
       <c r="Q9">
         <v>29.93498015790222</v>
       </c>
       <c r="R9">
-        <v>269.41482142112</v>
+        <v>269.4148214211201</v>
       </c>
       <c r="S9">
-        <v>0.006990412521586614</v>
+        <v>0.01469568617832912</v>
       </c>
       <c r="T9">
-        <v>0.009731206441012646</v>
+        <v>0.02167973464903976</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>40.26188533333334</v>
+        <v>40.26188533333333</v>
       </c>
       <c r="H10">
         <v>120.785656</v>
       </c>
       <c r="I10">
-        <v>0.2519905959794224</v>
+        <v>0.2209022133623169</v>
       </c>
       <c r="J10">
-        <v>0.2642647469385997</v>
+        <v>0.2331075435391518</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3820743333333333</v>
+        <v>0.2907036666666666</v>
       </c>
       <c r="N10">
-        <v>1.146223</v>
+        <v>0.872111</v>
       </c>
       <c r="O10">
-        <v>0.01425546764162392</v>
+        <v>0.02601090389226449</v>
       </c>
       <c r="P10">
-        <v>0.01892302011680397</v>
+        <v>0.03636329900732906</v>
       </c>
       <c r="Q10">
-        <v>15.38303299747645</v>
+        <v>11.70427769331289</v>
       </c>
       <c r="R10">
-        <v>138.447296977288</v>
+        <v>105.338499239816</v>
       </c>
       <c r="S10">
-        <v>0.003592243786978182</v>
+        <v>0.005745866241355729</v>
       </c>
       <c r="T10">
-        <v>0.005000687122481233</v>
+        <v>0.008476559306578157</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>40.26188533333334</v>
+        <v>40.26188533333333</v>
       </c>
       <c r="H11">
         <v>120.785656</v>
       </c>
       <c r="I11">
-        <v>0.2519905959794224</v>
+        <v>0.2209022133623169</v>
       </c>
       <c r="J11">
-        <v>0.2642647469385997</v>
+        <v>0.2331075435391518</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.063661</v>
+        <v>5.665891500000001</v>
       </c>
       <c r="N11">
-        <v>8.127321999999999</v>
+        <v>11.331783</v>
       </c>
       <c r="O11">
-        <v>0.1516181089335036</v>
+        <v>0.5069594097672143</v>
       </c>
       <c r="P11">
-        <v>0.1341741333944123</v>
+        <v>0.4724868893009816</v>
       </c>
       <c r="Q11">
-        <v>163.6106532155387</v>
+        <v>228.119473884108</v>
       </c>
       <c r="R11">
-        <v>981.6639192932321</v>
+        <v>1368.716843304648</v>
       </c>
       <c r="S11">
-        <v>0.03820633763142654</v>
+        <v>0.1119884557024314</v>
       </c>
       <c r="T11">
-        <v>0.0354574934071803</v>
+        <v>0.110140258119407</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>40.26188533333334</v>
+        <v>40.26188533333333</v>
       </c>
       <c r="H12">
         <v>120.785656</v>
       </c>
       <c r="I12">
-        <v>0.2519905959794224</v>
+        <v>0.2209022133623169</v>
       </c>
       <c r="J12">
-        <v>0.2642647469385997</v>
+        <v>0.2331075435391518</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>5.004420333333333</v>
+        <v>0.183503</v>
       </c>
       <c r="N12">
-        <v>15.013261</v>
+        <v>0.5505089999999999</v>
       </c>
       <c r="O12">
-        <v>0.1867185149667685</v>
+        <v>0.01641905295406965</v>
       </c>
       <c r="P12">
-        <v>0.2478542481889026</v>
+        <v>0.02295387097883837</v>
       </c>
       <c r="Q12">
-        <v>201.4873976204685</v>
+        <v>7.388176744322665</v>
       </c>
       <c r="R12">
-        <v>1813.386578584216</v>
+        <v>66.49359069890399</v>
       </c>
       <c r="S12">
-        <v>0.04705130986686869</v>
+        <v>0.003627005138867072</v>
       </c>
       <c r="T12">
-        <v>0.06549914017529723</v>
+        <v>0.00535072047859164</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>40.26188533333334</v>
+        <v>40.26188533333333</v>
       </c>
       <c r="H13">
         <v>120.785656</v>
       </c>
       <c r="I13">
-        <v>0.2519905959794224</v>
+        <v>0.2209022133623169</v>
       </c>
       <c r="J13">
-        <v>0.2642647469385997</v>
+        <v>0.2331075435391518</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.8390403333333335</v>
+        <v>0.4131153333333333</v>
       </c>
       <c r="N13">
-        <v>2.517121</v>
+        <v>1.239346</v>
       </c>
       <c r="O13">
-        <v>0.03130519712617182</v>
+        <v>0.03696376917073908</v>
       </c>
       <c r="P13">
-        <v>0.04155520463245785</v>
+        <v>0.0516754279805406</v>
       </c>
       <c r="Q13">
-        <v>33.78134569070846</v>
+        <v>16.63280218010845</v>
       </c>
       <c r="R13">
-        <v>304.0321112163761</v>
+        <v>149.695219620976</v>
       </c>
       <c r="S13">
-        <v>0.007888615281077338</v>
+        <v>0.008165378424030034</v>
       </c>
       <c r="T13">
-        <v>0.0109815756361782</v>
+        <v>0.01204593207787817</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>54.10571033333333</v>
+        <v>40.74165733333334</v>
       </c>
       <c r="H14">
-        <v>162.317131</v>
+        <v>122.224972</v>
       </c>
       <c r="I14">
-        <v>0.3386361587369278</v>
+        <v>0.223534546543732</v>
       </c>
       <c r="J14">
-        <v>0.355130708132384</v>
+        <v>0.2358853188830768</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.7692475</v>
+        <v>3.879503</v>
       </c>
       <c r="N14">
-        <v>31.538495</v>
+        <v>7.759005999999999</v>
       </c>
       <c r="O14">
-        <v>0.5883619438861605</v>
+        <v>0.3471211107855025</v>
       </c>
       <c r="P14">
-        <v>0.520669691097388</v>
+        <v>0.3235173678323748</v>
       </c>
       <c r="Q14">
-        <v>853.2063374096407</v>
+        <v>158.0573818496387</v>
       </c>
       <c r="R14">
-        <v>5119.238024457844</v>
+        <v>948.344291097832</v>
       </c>
       <c r="S14">
-        <v>0.1992406286246013</v>
+        <v>0.07759356009519386</v>
       </c>
       <c r="T14">
-        <v>0.1849057961024851</v>
+        <v>0.07631299747535336</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>54.10571033333333</v>
+        <v>40.74165733333334</v>
       </c>
       <c r="H15">
-        <v>162.317131</v>
+        <v>122.224972</v>
       </c>
       <c r="I15">
-        <v>0.3386361587369278</v>
+        <v>0.223534546543732</v>
       </c>
       <c r="J15">
-        <v>0.355130708132384</v>
+        <v>0.2358853188830768</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.7435066666666666</v>
+        <v>0.7435066666666668</v>
       </c>
       <c r="N15">
         <v>2.23052</v>
       </c>
       <c r="O15">
-        <v>0.02774076744577188</v>
+        <v>0.06652575343020993</v>
       </c>
       <c r="P15">
-        <v>0.03682370257003531</v>
+        <v>0.09300314489993548</v>
       </c>
       <c r="Q15">
-        <v>40.22795633756888</v>
+        <v>30.29169383838223</v>
       </c>
       <c r="R15">
-        <v>362.0516070381199</v>
+        <v>272.6252445454401</v>
       </c>
       <c r="S15">
-        <v>0.009394026928250605</v>
+        <v>0.0148708041265021</v>
       </c>
       <c r="T15">
-        <v>0.01307722756975293</v>
+        <v>0.02193807649185028</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>54.10571033333333</v>
+        <v>40.74165733333334</v>
       </c>
       <c r="H16">
-        <v>162.317131</v>
+        <v>122.224972</v>
       </c>
       <c r="I16">
-        <v>0.3386361587369278</v>
+        <v>0.223534546543732</v>
       </c>
       <c r="J16">
-        <v>0.355130708132384</v>
+        <v>0.2358853188830768</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3820743333333333</v>
+        <v>0.2907036666666666</v>
       </c>
       <c r="N16">
-        <v>1.146223</v>
+        <v>0.872111</v>
       </c>
       <c r="O16">
-        <v>0.01425546764162392</v>
+        <v>0.02601090389226449</v>
       </c>
       <c r="P16">
-        <v>0.01892302011680397</v>
+        <v>0.03636329900732906</v>
       </c>
       <c r="Q16">
-        <v>20.67240320513478</v>
+        <v>11.84374917287689</v>
       </c>
       <c r="R16">
-        <v>186.051628846213</v>
+        <v>106.593742555892</v>
       </c>
       <c r="S16">
-        <v>0.004827416803158095</v>
+        <v>0.005814335606749938</v>
       </c>
       <c r="T16">
-        <v>0.006720145534083941</v>
+        <v>0.008577568381984485</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>54.10571033333333</v>
+        <v>40.74165733333334</v>
       </c>
       <c r="H17">
-        <v>162.317131</v>
+        <v>122.224972</v>
       </c>
       <c r="I17">
-        <v>0.3386361587369278</v>
+        <v>0.223534546543732</v>
       </c>
       <c r="J17">
-        <v>0.355130708132384</v>
+        <v>0.2358853188830768</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.063661</v>
+        <v>5.665891500000001</v>
       </c>
       <c r="N17">
-        <v>8.127321999999999</v>
+        <v>11.331783</v>
       </c>
       <c r="O17">
-        <v>0.1516181089335036</v>
+        <v>0.5069594097672143</v>
       </c>
       <c r="P17">
-        <v>0.1341741333944123</v>
+        <v>0.4724868893009816</v>
       </c>
       <c r="Q17">
-        <v>219.8672649588636</v>
+        <v>230.837809980846</v>
       </c>
       <c r="R17">
-        <v>1319.203589753182</v>
+        <v>1385.026859885076</v>
       </c>
       <c r="S17">
-        <v>0.05134337400419872</v>
+        <v>0.1133229417783923</v>
       </c>
       <c r="T17">
-        <v>0.0476493550054066</v>
+        <v>0.111452720550835</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>54.10571033333333</v>
+        <v>40.74165733333334</v>
       </c>
       <c r="H18">
-        <v>162.317131</v>
+        <v>122.224972</v>
       </c>
       <c r="I18">
-        <v>0.3386361587369278</v>
+        <v>0.223534546543732</v>
       </c>
       <c r="J18">
-        <v>0.355130708132384</v>
+        <v>0.2358853188830768</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>5.004420333333333</v>
+        <v>0.183503</v>
       </c>
       <c r="N18">
-        <v>15.013261</v>
+        <v>0.5505089999999999</v>
       </c>
       <c r="O18">
-        <v>0.1867185149667685</v>
+        <v>0.01641905295406965</v>
       </c>
       <c r="P18">
-        <v>0.2478542481889026</v>
+        <v>0.02295387097883837</v>
       </c>
       <c r="Q18">
-        <v>270.7677169415767</v>
+        <v>7.476216345638666</v>
       </c>
       <c r="R18">
-        <v>2436.909452474191</v>
+        <v>67.285947110748</v>
       </c>
       <c r="S18">
-        <v>0.06322964067341005</v>
+        <v>0.003670225556765482</v>
       </c>
       <c r="T18">
-        <v>0.08802065467294462</v>
+        <v>0.005414481175444291</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>54.10571033333333</v>
+        <v>40.74165733333334</v>
       </c>
       <c r="H19">
-        <v>162.317131</v>
+        <v>122.224972</v>
       </c>
       <c r="I19">
-        <v>0.3386361587369278</v>
+        <v>0.223534546543732</v>
       </c>
       <c r="J19">
-        <v>0.355130708132384</v>
+        <v>0.2358853188830768</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.8390403333333335</v>
+        <v>0.4131153333333333</v>
       </c>
       <c r="N19">
-        <v>2.517121</v>
+        <v>1.239346</v>
       </c>
       <c r="O19">
-        <v>0.03130519712617182</v>
+        <v>0.03696376917073908</v>
       </c>
       <c r="P19">
-        <v>0.04155520463245785</v>
+        <v>0.0516754279805406</v>
       </c>
       <c r="Q19">
-        <v>45.39687323331678</v>
+        <v>16.83100334981244</v>
       </c>
       <c r="R19">
-        <v>408.5718590998511</v>
+        <v>151.479030148312</v>
       </c>
       <c r="S19">
-        <v>0.01060107170330914</v>
+        <v>0.008262679380128342</v>
       </c>
       <c r="T19">
-        <v>0.01475752924771088</v>
+        <v>0.01218947480760929</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.6140745</v>
+        <v>19.035236</v>
       </c>
       <c r="H20">
-        <v>21.228149</v>
+        <v>38.070472</v>
       </c>
       <c r="I20">
-        <v>0.066431239791213</v>
+        <v>0.1044393656546615</v>
       </c>
       <c r="J20">
-        <v>0.04644468233429877</v>
+        <v>0.07347324593986607</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.7692475</v>
+        <v>3.879503</v>
       </c>
       <c r="N20">
-        <v>31.538495</v>
+        <v>7.759005999999999</v>
       </c>
       <c r="O20">
-        <v>0.5883619438861605</v>
+        <v>0.3471211107855025</v>
       </c>
       <c r="P20">
-        <v>0.520669691097388</v>
+        <v>0.3235173678323748</v>
       </c>
       <c r="Q20">
-        <v>167.3759677739387</v>
+        <v>73.84725516770798</v>
       </c>
       <c r="R20">
-        <v>669.5038710957549</v>
+        <v>295.3890206708319</v>
       </c>
       <c r="S20">
-        <v>0.03908561337832574</v>
+        <v>0.03625310861577937</v>
       </c>
       <c r="T20">
-        <v>0.02418233840411566</v>
+        <v>0.02376987113256619</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.6140745</v>
+        <v>19.035236</v>
       </c>
       <c r="H21">
-        <v>21.228149</v>
+        <v>38.070472</v>
       </c>
       <c r="I21">
-        <v>0.066431239791213</v>
+        <v>0.1044393656546615</v>
       </c>
       <c r="J21">
-        <v>0.04644468233429877</v>
+        <v>0.07347324593986607</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.7435066666666666</v>
+        <v>0.7435066666666668</v>
       </c>
       <c r="N21">
         <v>2.23052</v>
       </c>
       <c r="O21">
-        <v>0.02774076744577188</v>
+        <v>0.06652575343020993</v>
       </c>
       <c r="P21">
-        <v>0.03682370257003531</v>
+        <v>0.09300314489993548</v>
       </c>
       <c r="Q21">
-        <v>7.891635151246666</v>
+        <v>14.15282486757333</v>
       </c>
       <c r="R21">
-        <v>47.34981090747999</v>
+        <v>84.91694920544001</v>
       </c>
       <c r="S21">
-        <v>0.001842853574182347</v>
+        <v>0.006947907487949549</v>
       </c>
       <c r="T21">
-        <v>0.001710265168237991</v>
+        <v>0.00683324293841396</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.6140745</v>
+        <v>19.035236</v>
       </c>
       <c r="H22">
-        <v>21.228149</v>
+        <v>38.070472</v>
       </c>
       <c r="I22">
-        <v>0.066431239791213</v>
+        <v>0.1044393656546615</v>
       </c>
       <c r="J22">
-        <v>0.04644468233429877</v>
+        <v>0.07347324593986607</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.3820743333333333</v>
+        <v>0.2907036666666666</v>
       </c>
       <c r="N22">
-        <v>1.146223</v>
+        <v>0.872111</v>
       </c>
       <c r="O22">
-        <v>0.01425546764162392</v>
+        <v>0.02601090389226449</v>
       </c>
       <c r="P22">
-        <v>0.01892302011680397</v>
+        <v>0.03636329900732906</v>
       </c>
       <c r="Q22">
-        <v>4.055365438537833</v>
+        <v>5.533612901065332</v>
       </c>
       <c r="R22">
-        <v>24.332192631227</v>
+        <v>33.20167740639199</v>
       </c>
       <c r="S22">
-        <v>0.0009470083892365961</v>
+        <v>0.00271656230261247</v>
       </c>
       <c r="T22">
-        <v>0.0008788736581305055</v>
+        <v>0.002671729611150376</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.6140745</v>
+        <v>19.035236</v>
       </c>
       <c r="H23">
-        <v>21.228149</v>
+        <v>38.070472</v>
       </c>
       <c r="I23">
-        <v>0.066431239791213</v>
+        <v>0.1044393656546615</v>
       </c>
       <c r="J23">
-        <v>0.04644468233429877</v>
+        <v>0.07347324593986607</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.063661</v>
+        <v>5.665891500000001</v>
       </c>
       <c r="N23">
-        <v>8.127321999999999</v>
+        <v>11.331783</v>
       </c>
       <c r="O23">
-        <v>0.1516181089335036</v>
+        <v>0.5069594097672143</v>
       </c>
       <c r="P23">
-        <v>0.1341741333944123</v>
+        <v>0.4724868893009816</v>
       </c>
       <c r="Q23">
-        <v>43.1320005967445</v>
+        <v>107.851581852894</v>
       </c>
       <c r="R23">
-        <v>172.528002386978</v>
+        <v>431.406327411576</v>
       </c>
       <c r="S23">
-        <v>0.01007217895125183</v>
+        <v>0.05294651916874949</v>
       </c>
       <c r="T23">
-        <v>0.006231675002983308</v>
+        <v>0.0347151454209733</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.6140745</v>
+        <v>19.035236</v>
       </c>
       <c r="H24">
-        <v>21.228149</v>
+        <v>38.070472</v>
       </c>
       <c r="I24">
-        <v>0.066431239791213</v>
+        <v>0.1044393656546615</v>
       </c>
       <c r="J24">
-        <v>0.04644468233429877</v>
+        <v>0.07347324593986607</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>5.004420333333333</v>
+        <v>0.183503</v>
       </c>
       <c r="N24">
-        <v>15.013261</v>
+        <v>0.5505089999999999</v>
       </c>
       <c r="O24">
-        <v>0.1867185149667685</v>
+        <v>0.01641905295406965</v>
       </c>
       <c r="P24">
-        <v>0.2478542481889026</v>
+        <v>0.02295387097883837</v>
       </c>
       <c r="Q24">
-        <v>53.11729024731483</v>
+        <v>3.493022911707999</v>
       </c>
       <c r="R24">
-        <v>318.703741483889</v>
+        <v>20.95813747024799</v>
       </c>
       <c r="S24">
-        <v>0.01240394244121659</v>
+        <v>0.00171479547517333</v>
       </c>
       <c r="T24">
-        <v>0.01151151182234003</v>
+        <v>0.001686495407700146</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.6140745</v>
+        <v>19.035236</v>
       </c>
       <c r="H25">
-        <v>21.228149</v>
+        <v>38.070472</v>
       </c>
       <c r="I25">
-        <v>0.066431239791213</v>
+        <v>0.1044393656546615</v>
       </c>
       <c r="J25">
-        <v>0.04644468233429877</v>
+        <v>0.07347324593986607</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.8390403333333335</v>
+        <v>0.4131153333333333</v>
       </c>
       <c r="N25">
-        <v>2.517121</v>
+        <v>1.239346</v>
       </c>
       <c r="O25">
-        <v>0.03130519712617182</v>
+        <v>0.03696376917073908</v>
       </c>
       <c r="P25">
-        <v>0.04155520463245785</v>
+        <v>0.0516754279805406</v>
       </c>
       <c r="Q25">
-        <v>8.905636606504835</v>
+        <v>7.863747865218666</v>
       </c>
       <c r="R25">
-        <v>53.433819639029</v>
+        <v>47.182487191312</v>
       </c>
       <c r="S25">
-        <v>0.002079643056999913</v>
+        <v>0.003860472604397324</v>
       </c>
       <c r="T25">
-        <v>0.001930018278491286</v>
+        <v>0.003796761429062096</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.791483333333334</v>
+        <v>17.98088233333333</v>
       </c>
       <c r="H26">
-        <v>26.37445</v>
+        <v>53.942647</v>
       </c>
       <c r="I26">
-        <v>0.05502402846683612</v>
+        <v>0.09865451338793194</v>
       </c>
       <c r="J26">
-        <v>0.05770418099061987</v>
+        <v>0.1041053909097418</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>15.7692475</v>
+        <v>3.879503</v>
       </c>
       <c r="N26">
-        <v>31.538495</v>
+        <v>7.759005999999999</v>
       </c>
       <c r="O26">
-        <v>0.5883619438861605</v>
+        <v>0.3471211107855025</v>
       </c>
       <c r="P26">
-        <v>0.520669691097388</v>
+        <v>0.3235173678323748</v>
       </c>
       <c r="Q26">
-        <v>138.6350765754583</v>
+        <v>69.75688695481367</v>
       </c>
       <c r="R26">
-        <v>831.8104594527499</v>
+        <v>418.541321728882</v>
       </c>
       <c r="S26">
-        <v>0.03237404434919513</v>
+        <v>0.03424506427122215</v>
       </c>
       <c r="T26">
-        <v>0.03004481809141382</v>
+        <v>0.0336799020442801</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>8.791483333333334</v>
+        <v>17.98088233333333</v>
       </c>
       <c r="H27">
-        <v>26.37445</v>
+        <v>53.942647</v>
       </c>
       <c r="I27">
-        <v>0.05502402846683612</v>
+        <v>0.09865451338793194</v>
       </c>
       <c r="J27">
-        <v>0.05770418099061987</v>
+        <v>0.1041053909097418</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.7435066666666666</v>
+        <v>0.7435066666666668</v>
       </c>
       <c r="N27">
         <v>2.23052</v>
       </c>
       <c r="O27">
-        <v>0.02774076744577188</v>
+        <v>0.06652575343020993</v>
       </c>
       <c r="P27">
-        <v>0.03682370257003531</v>
+        <v>0.09300314489993548</v>
       </c>
       <c r="Q27">
-        <v>6.536526468222222</v>
+        <v>13.36890588738222</v>
       </c>
       <c r="R27">
-        <v>58.828738214</v>
+        <v>120.32015298644</v>
       </c>
       <c r="S27">
-        <v>0.001526408777628032</v>
+        <v>0.006563065832422905</v>
       </c>
       <c r="T27">
-        <v>0.002124881597846072</v>
+        <v>0.009682128755643142</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>8.791483333333334</v>
+        <v>17.98088233333333</v>
       </c>
       <c r="H28">
-        <v>26.37445</v>
+        <v>53.942647</v>
       </c>
       <c r="I28">
-        <v>0.05502402846683612</v>
+        <v>0.09865451338793194</v>
       </c>
       <c r="J28">
-        <v>0.05770418099061987</v>
+        <v>0.1041053909097418</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.3820743333333333</v>
+        <v>0.2907036666666666</v>
       </c>
       <c r="N28">
-        <v>1.146223</v>
+        <v>0.872111</v>
       </c>
       <c r="O28">
-        <v>0.01425546764162392</v>
+        <v>0.02601090389226449</v>
       </c>
       <c r="P28">
-        <v>0.01892302011680397</v>
+        <v>0.03636329900732906</v>
       </c>
       <c r="Q28">
-        <v>3.359000133594445</v>
+        <v>5.227108424201888</v>
       </c>
       <c r="R28">
-        <v>30.23100120235</v>
+        <v>47.043975817817</v>
       </c>
       <c r="S28">
-        <v>0.0007843932573207757</v>
+        <v>0.002566093066271618</v>
       </c>
       <c r="T28">
-        <v>0.001091937377709197</v>
+        <v>0.003785615457925817</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>8.791483333333334</v>
+        <v>17.98088233333333</v>
       </c>
       <c r="H29">
-        <v>26.37445</v>
+        <v>53.942647</v>
       </c>
       <c r="I29">
-        <v>0.05502402846683612</v>
+        <v>0.09865451338793194</v>
       </c>
       <c r="J29">
-        <v>0.05770418099061987</v>
+        <v>0.1041053909097418</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.063661</v>
+        <v>5.665891500000001</v>
       </c>
       <c r="N29">
-        <v>8.127321999999999</v>
+        <v>11.331783</v>
       </c>
       <c r="O29">
-        <v>0.1516181089335036</v>
+        <v>0.5069594097672143</v>
       </c>
       <c r="P29">
-        <v>0.1341741333944123</v>
+        <v>0.4724868893009816</v>
       </c>
       <c r="Q29">
-        <v>35.72560795381666</v>
+        <v>101.8777283749335</v>
       </c>
       <c r="R29">
-        <v>214.3536477229</v>
+        <v>611.2663702496011</v>
       </c>
       <c r="S29">
-        <v>0.00834263914204496</v>
+        <v>0.05001383387801771</v>
       </c>
       <c r="T29">
-        <v>0.007742408477650742</v>
+        <v>0.04918843231040659</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>8.791483333333334</v>
+        <v>17.98088233333333</v>
       </c>
       <c r="H30">
-        <v>26.37445</v>
+        <v>53.942647</v>
       </c>
       <c r="I30">
-        <v>0.05502402846683612</v>
+        <v>0.09865451338793194</v>
       </c>
       <c r="J30">
-        <v>0.05770418099061987</v>
+        <v>0.1041053909097418</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>5.004420333333333</v>
+        <v>0.183503</v>
       </c>
       <c r="N30">
-        <v>15.013261</v>
+        <v>0.5505089999999999</v>
       </c>
       <c r="O30">
-        <v>0.1867185149667685</v>
+        <v>0.01641905295406965</v>
       </c>
       <c r="P30">
-        <v>0.2478542481889026</v>
+        <v>0.02295387097883837</v>
       </c>
       <c r="Q30">
-        <v>43.99627795349444</v>
+        <v>3.299545850813666</v>
       </c>
       <c r="R30">
-        <v>395.96650158145</v>
+        <v>29.695912657323</v>
       </c>
       <c r="S30">
-        <v>0.01027400488281684</v>
+        <v>0.001619813679474427</v>
       </c>
       <c r="T30">
-        <v>0.01430222639678645</v>
+        <v>0.002389621711143746</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>8.791483333333334</v>
+        <v>17.98088233333333</v>
       </c>
       <c r="H31">
-        <v>26.37445</v>
+        <v>53.942647</v>
       </c>
       <c r="I31">
-        <v>0.05502402846683612</v>
+        <v>0.09865451338793194</v>
       </c>
       <c r="J31">
-        <v>0.05770418099061987</v>
+        <v>0.1041053909097418</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.8390403333333335</v>
+        <v>0.4131153333333333</v>
       </c>
       <c r="N31">
-        <v>2.517121</v>
+        <v>1.239346</v>
       </c>
       <c r="O31">
-        <v>0.03130519712617182</v>
+        <v>0.03696376917073908</v>
       </c>
       <c r="P31">
-        <v>0.04155520463245785</v>
+        <v>0.0516754279805406</v>
       </c>
       <c r="Q31">
-        <v>7.376409106494446</v>
+        <v>7.428178198762445</v>
       </c>
       <c r="R31">
-        <v>66.38768195845</v>
+        <v>66.853603788862</v>
       </c>
       <c r="S31">
-        <v>0.001722538057830395</v>
+        <v>0.003646642660523105</v>
       </c>
       <c r="T31">
-        <v>0.002397909049213593</v>
+        <v>0.005379690630342388</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>34.35329166666667</v>
+        <v>54.64754433333334</v>
       </c>
       <c r="H32">
-        <v>103.059875</v>
+        <v>163.942633</v>
       </c>
       <c r="I32">
-        <v>0.2150099621333743</v>
+        <v>0.2998310535660461</v>
       </c>
       <c r="J32">
-        <v>0.2254828320541532</v>
+        <v>0.3163973747012699</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>15.7692475</v>
+        <v>3.879503</v>
       </c>
       <c r="N32">
-        <v>31.538495</v>
+        <v>7.759005999999999</v>
       </c>
       <c r="O32">
-        <v>0.5883619438861605</v>
+        <v>0.3471211107855025</v>
       </c>
       <c r="P32">
-        <v>0.520669691097388</v>
+        <v>0.3235173678323748</v>
       </c>
       <c r="Q32">
-        <v>541.7255587313542</v>
+        <v>212.0053121837997</v>
       </c>
       <c r="R32">
-        <v>3250.353352388125</v>
+        <v>1272.031873102798</v>
       </c>
       <c r="S32">
-        <v>0.1265036792756818</v>
+        <v>0.1040776883618334</v>
       </c>
       <c r="T32">
-        <v>0.1174020765134002</v>
+        <v>0.1023600458524284</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>34.35329166666667</v>
+        <v>54.64754433333334</v>
       </c>
       <c r="H33">
-        <v>103.059875</v>
+        <v>163.942633</v>
       </c>
       <c r="I33">
-        <v>0.2150099621333743</v>
+        <v>0.2998310535660461</v>
       </c>
       <c r="J33">
-        <v>0.2254828320541532</v>
+        <v>0.3163973747012699</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.7435066666666666</v>
+        <v>0.7435066666666668</v>
       </c>
       <c r="N33">
         <v>2.23052</v>
       </c>
       <c r="O33">
-        <v>0.02774076744577188</v>
+        <v>0.06652575343020993</v>
       </c>
       <c r="P33">
-        <v>0.03682370257003531</v>
+        <v>0.09300314489993548</v>
       </c>
       <c r="Q33">
-        <v>25.54190137611111</v>
+        <v>40.63081352879556</v>
       </c>
       <c r="R33">
-        <v>229.877112385</v>
+        <v>365.6773217591601</v>
       </c>
       <c r="S33">
-        <v>0.005964541358066153</v>
+        <v>0.01994648674025485</v>
       </c>
       <c r="T33">
-        <v>0.00830311274221136</v>
+        <v>0.02942595088530138</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>34.35329166666667</v>
+        <v>54.64754433333334</v>
       </c>
       <c r="H34">
-        <v>103.059875</v>
+        <v>163.942633</v>
       </c>
       <c r="I34">
-        <v>0.2150099621333743</v>
+        <v>0.2998310535660461</v>
       </c>
       <c r="J34">
-        <v>0.2254828320541532</v>
+        <v>0.3163973747012699</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.3820743333333333</v>
+        <v>0.2907036666666666</v>
       </c>
       <c r="N34">
-        <v>1.146223</v>
+        <v>0.872111</v>
       </c>
       <c r="O34">
-        <v>0.01425546764162392</v>
+        <v>0.02601090389226449</v>
       </c>
       <c r="P34">
-        <v>0.01892302011680397</v>
+        <v>0.03636329900732906</v>
       </c>
       <c r="Q34">
-        <v>13.12551101134722</v>
+        <v>15.88624151202922</v>
       </c>
       <c r="R34">
-        <v>118.129599102125</v>
+        <v>142.976173608263</v>
       </c>
       <c r="S34">
-        <v>0.003065067557819101</v>
+        <v>0.007798876718222831</v>
       </c>
       <c r="T34">
-        <v>0.004266816166954671</v>
+        <v>0.01150525234139621</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>34.35329166666667</v>
+        <v>54.64754433333334</v>
       </c>
       <c r="H35">
-        <v>103.059875</v>
+        <v>163.942633</v>
       </c>
       <c r="I35">
-        <v>0.2150099621333743</v>
+        <v>0.2998310535660461</v>
       </c>
       <c r="J35">
-        <v>0.2254828320541532</v>
+        <v>0.3163973747012699</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.063661</v>
+        <v>5.665891500000001</v>
       </c>
       <c r="N35">
-        <v>8.127321999999999</v>
+        <v>11.331783</v>
       </c>
       <c r="O35">
-        <v>0.1516181089335036</v>
+        <v>0.5069594097672143</v>
       </c>
       <c r="P35">
-        <v>0.1341741333944123</v>
+        <v>0.4724868893009816</v>
       </c>
       <c r="Q35">
-        <v>139.6001315674583</v>
+        <v>309.6270569341066</v>
       </c>
       <c r="R35">
-        <v>837.60078940475</v>
+        <v>1857.762341604639</v>
       </c>
       <c r="S35">
-        <v>0.03259940386052641</v>
+        <v>0.1520021739457247</v>
       </c>
       <c r="T35">
-        <v>0.03025396358618382</v>
+        <v>0.1494936113556001</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,46 +2651,46 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>34.35329166666667</v>
+        <v>54.64754433333334</v>
       </c>
       <c r="H36">
-        <v>103.059875</v>
+        <v>163.942633</v>
       </c>
       <c r="I36">
-        <v>0.2150099621333743</v>
+        <v>0.2998310535660461</v>
       </c>
       <c r="J36">
-        <v>0.2254828320541532</v>
+        <v>0.3163973747012699</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M36">
-        <v>5.004420333333333</v>
+        <v>0.183503</v>
       </c>
       <c r="N36">
-        <v>15.013261</v>
+        <v>0.5505089999999999</v>
       </c>
       <c r="O36">
-        <v>0.1867185149667685</v>
+        <v>0.01641905295406965</v>
       </c>
       <c r="P36">
-        <v>0.2478542481889026</v>
+        <v>0.02295387097883837</v>
       </c>
       <c r="Q36">
-        <v>171.9183113335972</v>
+        <v>10.02798832779967</v>
       </c>
       <c r="R36">
-        <v>1547.264802002375</v>
+        <v>90.25189495019698</v>
       </c>
       <c r="S36">
-        <v>0.04014634083260477</v>
+        <v>0.004922941945775403</v>
       </c>
       <c r="T36">
-        <v>0.05588687781828672</v>
+        <v>0.007262544516936129</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>34.35329166666667</v>
+        <v>54.64754433333334</v>
       </c>
       <c r="H37">
-        <v>103.059875</v>
+        <v>163.942633</v>
       </c>
       <c r="I37">
-        <v>0.2150099621333743</v>
+        <v>0.2998310535660461</v>
       </c>
       <c r="J37">
-        <v>0.2254828320541532</v>
+        <v>0.3163973747012699</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.8390403333333335</v>
+        <v>0.4131153333333333</v>
       </c>
       <c r="N37">
-        <v>2.517121</v>
+        <v>1.239346</v>
       </c>
       <c r="O37">
-        <v>0.03130519712617182</v>
+        <v>0.03696376917073908</v>
       </c>
       <c r="P37">
-        <v>0.04155520463245785</v>
+        <v>0.0516754279805406</v>
       </c>
       <c r="Q37">
-        <v>28.82379729109723</v>
+        <v>22.57573849311311</v>
       </c>
       <c r="R37">
-        <v>259.414175619875</v>
+        <v>203.181646438018</v>
       </c>
       <c r="S37">
-        <v>0.00673092924867602</v>
+        <v>0.01108288585423483</v>
       </c>
       <c r="T37">
-        <v>0.009369985227116462</v>
+        <v>0.01634996974960759</v>
       </c>
     </row>
   </sheetData>
